--- a/experiments/compression/results.2017/bunnyRes.xlsx
+++ b/experiments/compression/results.2017/bunnyRes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\plane tree experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\experiments\compression\results.2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="11475" windowHeight="3540" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="11475" windowHeight="3540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="10" r:id="rId1"/>
@@ -322,11 +322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500432024"/>
-        <c:axId val="500432416"/>
+        <c:axId val="318333656"/>
+        <c:axId val="318332088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500432024"/>
+        <c:axId val="318333656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,12 +364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500432416"/>
+        <c:crossAx val="318332088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500432416"/>
+        <c:axId val="318332088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500432024"/>
+        <c:crossAx val="318333656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -690,11 +690,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500432808"/>
-        <c:axId val="500433200"/>
+        <c:axId val="318332872"/>
+        <c:axId val="318328168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500432808"/>
+        <c:axId val="318332872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500433200"/>
+        <c:crossAx val="318328168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500433200"/>
+        <c:axId val="318328168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -778,7 +778,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500432808"/>
+        <c:crossAx val="318332872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -924,28 +924,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.945399741639156</c:v>
+                  <c:v>0.2431749677048945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9855892062580738</c:v>
+                  <c:v>0.24819865078225922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0519592364001724</c:v>
+                  <c:v>0.25649490455002155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0560930099038321</c:v>
+                  <c:v>0.25701162623797902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2402755849002438</c:v>
+                  <c:v>0.28003444811253048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3548729725850439</c:v>
+                  <c:v>0.29435912157313049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1606430314339029</c:v>
+                  <c:v>0.52008037892923786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.80660255490168</c:v>
+                  <c:v>1.35082531936271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,13 +1145,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500433984"/>
-        <c:axId val="500433592"/>
+        <c:axId val="318326992"/>
+        <c:axId val="318328560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500433984"/>
+        <c:axId val="318326992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1171,20 +1172,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500433592"/>
+        <c:crossAx val="318328560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500433592"/>
+        <c:axId val="318328560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000009E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1204,13 +1207,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500433984"/>
+        <c:crossAx val="318326992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1383,49 +1387,49 @@
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.196354241</c:v>
+                  <c:v>0.02454428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.855691115</c:v>
+                  <c:v>0.106961389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.920683221</c:v>
+                  <c:v>0.115085403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.945399742</c:v>
+                  <c:v>0.243174968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.985589206</c:v>
+                  <c:v>0.248198651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.051959236</c:v>
+                  <c:v>0.256494905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.05609301</c:v>
+                  <c:v>0.257011626</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.240275585</c:v>
+                  <c:v>0.280034448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.354872973</c:v>
+                  <c:v>0.294359122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.160643031</c:v>
+                  <c:v>0.520080379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.80660255</c:v>
+                  <c:v>1.350825319</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.44653366</c:v>
+                  <c:v>4.930816707</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.44653366</c:v>
+                  <c:v>4.930816707</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.96876704</c:v>
+                  <c:v>5.996095881</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.70012918</c:v>
+                  <c:v>6.212516148</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>orms2</c:v>
@@ -1658,11 +1662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500430064"/>
-        <c:axId val="500434376"/>
+        <c:axId val="319783504"/>
+        <c:axId val="319784288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500430064"/>
+        <c:axId val="319783504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1686,18 +1690,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500434376"/>
+        <c:crossAx val="319784288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500434376"/>
+        <c:axId val="319784288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -1721,13 +1726,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500430064"/>
+        <c:crossAx val="319783504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1878,49 +1884,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.19635424142385532</c:v>
+                  <c:v>2.4544280177981916E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85569111525764319</c:v>
+                  <c:v>0.1069613894072054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92068322089852161</c:v>
+                  <c:v>0.1150854026123152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.945399741639156</c:v>
+                  <c:v>0.2431749677048945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9855892062580738</c:v>
+                  <c:v>0.24819865078225922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0519592364001724</c:v>
+                  <c:v>0.25649490455002155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0560930099038321</c:v>
+                  <c:v>0.25701162623797902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2402755849002438</c:v>
+                  <c:v>0.28003444811253048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3548729725850439</c:v>
+                  <c:v>0.29435912157313049</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1606430314339029</c:v>
+                  <c:v>0.52008037892923786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.80660255490168</c:v>
+                  <c:v>1.35082531936271</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.446533658676621</c:v>
+                  <c:v>4.9308167073345777</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.446533658676621</c:v>
+                  <c:v>4.9308167073345777</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.968767044639016</c:v>
+                  <c:v>5.996095880579877</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.700129180421989</c:v>
+                  <c:v>6.2125161475527486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500429672"/>
-        <c:axId val="500435160"/>
+        <c:axId val="319783896"/>
+        <c:axId val="319786248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500429672"/>
+        <c:axId val="319783896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2168,18 +2174,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500435160"/>
+        <c:crossAx val="319786248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500435160"/>
+        <c:axId val="319786248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5000000000000005E-3"/>
@@ -2202,13 +2209,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500429672"/>
+        <c:crossAx val="319783896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2434,11 +2442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="500435944"/>
-        <c:axId val="500430848"/>
+        <c:axId val="350851032"/>
+        <c:axId val="350854168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="500435944"/>
+        <c:axId val="350851032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,18 +2468,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500430848"/>
+        <c:crossAx val="350854168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="500430848"/>
+        <c:axId val="350854168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -2494,13 +2503,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="500435944"/>
+        <c:crossAx val="350851032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2547,7 +2557,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2586,7 +2596,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9172705" cy="6289110"/>
+    <xdr:ext cx="9485856" cy="6289110"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2614,15 +2624,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>243569</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>338819</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3031,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,8 +3500,8 @@
         <v>3.6200000000000002E-4</v>
       </c>
       <c r="I20" s="3">
-        <f>(E20*8)/$B$18</f>
-        <v>0.19635424142385532</v>
+        <f>(E20*1)/$B$18</f>
+        <v>2.4544280177981916E-2</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="1"/>
@@ -3522,8 +3532,8 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" ref="I21:I34" si="4">(E21*8)/$B$18</f>
-        <v>0.85569111525764319</v>
+        <f t="shared" ref="I21:I34" si="4">(E21*1)/$B$18</f>
+        <v>0.1069613894072054</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -3555,7 +3565,7 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="4"/>
-        <v>0.92068322089852161</v>
+        <v>0.1150854026123152</v>
       </c>
       <c r="J22" s="6"/>
     </row>
@@ -3586,7 +3596,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="4"/>
-        <v>1.945399741639156</v>
+        <v>0.2431749677048945</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3616,7 +3626,7 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="4"/>
-        <v>1.9855892062580738</v>
+        <v>0.24819865078225922</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3646,7 +3656,7 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>2.0519592364001724</v>
+        <v>0.25649490455002155</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -3676,7 +3686,7 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>2.0560930099038321</v>
+        <v>0.25701162623797902</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -3706,7 +3716,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>2.2402755849002438</v>
+        <v>0.28003444811253048</v>
       </c>
       <c r="J27" s="6"/>
     </row>
@@ -3737,7 +3747,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="4"/>
-        <v>2.3548729725850439</v>
+        <v>0.29435912157313049</v>
       </c>
       <c r="J28" s="6"/>
     </row>
@@ -3768,7 +3778,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="4"/>
-        <v>4.1606430314339029</v>
+        <v>0.52008037892923786</v>
       </c>
       <c r="O29" s="4"/>
     </row>
@@ -3799,7 +3809,7 @@
       </c>
       <c r="I30" s="3">
         <f t="shared" si="4"/>
-        <v>10.80660255490168</v>
+        <v>1.35082531936271</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -3829,7 +3839,7 @@
       </c>
       <c r="I31" s="3">
         <f t="shared" si="4"/>
-        <v>39.446533658676621</v>
+        <v>4.9308167073345777</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -3859,7 +3869,7 @@
       </c>
       <c r="I32" s="3">
         <f t="shared" si="4"/>
-        <v>39.446533658676621</v>
+        <v>4.9308167073345777</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,7 +3899,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="4"/>
-        <v>47.968767044639016</v>
+        <v>5.996095880579877</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3919,7 +3929,7 @@
       </c>
       <c r="I34" s="3">
         <f t="shared" si="4"/>
-        <v>49.700129180421989</v>
+        <v>6.2125161475527486</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">

--- a/experiments/compression/results.2017/bunnyRes.xlsx
+++ b/experiments/compression/results.2017/bunnyRes.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Chart1" sheetId="10" r:id="rId1"/>
     <sheet name="Chart2" sheetId="11" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="ChartX" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -79,9 +80,6 @@
     <t>bunny</t>
   </si>
   <si>
-    <t>BIO-Tree</t>
-  </si>
-  <si>
     <t>threshold</t>
   </si>
   <si>
@@ -107,6 +105,9 @@
   </si>
   <si>
     <t>orms2</t>
+  </si>
+  <si>
+    <t>SOT</t>
   </si>
 </sst>
 </file>
@@ -322,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318333656"/>
-        <c:axId val="318332088"/>
+        <c:axId val="319455488"/>
+        <c:axId val="319459408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318333656"/>
+        <c:axId val="319455488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,12 +365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318332088"/>
+        <c:crossAx val="319459408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318332088"/>
+        <c:axId val="319459408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318333656"/>
+        <c:crossAx val="319455488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -586,7 +587,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="63500">
+            <a:ln w="50800">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
@@ -596,7 +597,7 @@
           </c:spPr>
           <c:marker>
             <c:spPr>
-              <a:ln w="63500">
+              <a:ln w="50800">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="50000"/>
@@ -690,11 +691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318332872"/>
-        <c:axId val="318328168"/>
+        <c:axId val="319456664"/>
+        <c:axId val="319457056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318332872"/>
+        <c:axId val="319456664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,12 +734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318328168"/>
+        <c:crossAx val="319457056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318328168"/>
+        <c:axId val="319457056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -778,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318332872"/>
+        <c:crossAx val="319456664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -840,83 +841,33 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Touma &amp; Gotsman</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$7:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.032258064516129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0322580645161299</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.935483870967742</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.096774193548386</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.580645161290322</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$7:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.1934826883910385E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6476578411405296E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2830957230142569E-4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.0000000000">
-                  <c:v>6.7209775967413439E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0000000000">
-                  <c:v>3.2586558044806514E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="50800"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$I$23:$I$30</c:f>
@@ -986,8 +937,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="6"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$5</c:f>
@@ -999,6 +950,33 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$7:$A$13</c:f>
@@ -1062,8 +1040,8 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="7"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$36</c:f>
@@ -1075,44 +1053,73 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$39:$G$45</c:f>
+              <c:f>Sheet1!$J$39:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.22850581311898951</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28500071766901103</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59503373044351948</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7419262236256638</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7419262236256638</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3158317783838096</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3165207406344193</c:v>
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:f>Sheet1!$K$39:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.1000000000000003E-3</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.7000000000000001E-3</c:v>
@@ -1127,10 +1134,16 @@
                   <c:v>8.0000000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0000000000000006E-4</c:v>
+                  <c:v>5.9999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0000000000000006E-4</c:v>
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9999999999999997E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,11 +1158,765 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318326992"/>
-        <c:axId val="318328560"/>
+        <c:axId val="414941128"/>
+        <c:axId val="414941912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318326992"/>
+        <c:axId val="414941128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:t>BPV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414941912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="414941912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000009E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:t>RMS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414941128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48682242588528901"/>
+          <c:y val="5.7399762791157383E-2"/>
+          <c:w val="0.49777602082526567"/>
+          <c:h val="0.36707458900273449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Touma &amp; Gotsman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.032258064516129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0322580645161299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.935483870967742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.096774193548386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.580645161290322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1934826883910385E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6476578411405296E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2830957230142569E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000000">
+                  <c:v>6.7209775967413439E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000000000">
+                  <c:v>3.2586558044806514E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2431749677048945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24819865078225922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25649490455002155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25701162623797902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28003444811253048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29435912157313049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52008037892923786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35082531936271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5870000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.462E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.389E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.343E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.049E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3700000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Khodakovsky et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2387096774193549E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5000000000000005E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$39:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.22850581311898951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28500071766901103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59503373044351948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7419262236256638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7419262236256638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3158317783838096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3165207406344193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Touma &amp; Gotsman</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.032258064516129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0322580645161299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.935483870967742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.096774193548386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.580645161290322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1934826883910385E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6476578411405296E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2830957230142569E-4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0000000000">
+                  <c:v>6.7209775967413439E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0000000000">
+                  <c:v>3.2586558044806514E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2431749677048945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24819865078225922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25649490455002155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25701162623797902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28003444811253048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29435912157313049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52008037892923786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35082531936271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5870000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.462E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.389E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.343E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.049E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3700000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Khodakovsky et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2387096774193549E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5000000000000005E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$39:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.22850581311898951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28500071766901103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59503373044351948</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7419262236256638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7419262236256638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3158317783838096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3165207406344193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000006E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355869800"/>
+        <c:axId val="355867840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355869800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1179,12 +1946,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318328560"/>
+        <c:crossAx val="355867840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318328560"/>
+        <c:axId val="355867840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -1214,7 +1981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318326992"/>
+        <c:crossAx val="355869800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1245,7 +2012,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1662,11 +2429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319783504"/>
-        <c:axId val="319784288"/>
+        <c:axId val="321694256"/>
+        <c:axId val="321694648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319783504"/>
+        <c:axId val="321694256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1697,12 +2464,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319784288"/>
+        <c:crossAx val="321694648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319784288"/>
+        <c:axId val="321694648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -1733,7 +2500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319783504"/>
+        <c:crossAx val="321694256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1769,7 +2536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1872,7 +2639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2147,11 +2914,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319783896"/>
-        <c:axId val="319786248"/>
+        <c:axId val="321692296"/>
+        <c:axId val="321693864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319783896"/>
+        <c:axId val="321692296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2181,12 +2948,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319786248"/>
+        <c:crossAx val="321693864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319786248"/>
+        <c:axId val="321693864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5000000000000005E-3"/>
@@ -2216,7 +2983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="319783896"/>
+        <c:crossAx val="321692296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2247,7 +3014,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2442,11 +3209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350851032"/>
-        <c:axId val="350854168"/>
+        <c:axId val="321695040"/>
+        <c:axId val="321698568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350851032"/>
+        <c:axId val="321695040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,12 +3242,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="350854168"/>
+        <c:crossAx val="321698568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="350854168"/>
+        <c:axId val="321698568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -2510,7 +3277,369 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="350851032"/>
+        <c:crossAx val="321695040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75048361529066288"/>
+          <c:y val="0.22057964741722294"/>
+          <c:w val="0.23411484455532167"/>
+          <c:h val="0.20389472457591851"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$23:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2431749677048945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24819865078225922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25649490455002155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25701162623797902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28003444811253048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29435912157313049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52008037892923786</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35082531936271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.5870000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4679999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.462E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.389E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.343E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.049E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3700000000000004E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Khodakovsky et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$7:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2387096774193549E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5000000000000005E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$39:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$39:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.0999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355859608"/>
+        <c:axId val="355865488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355859608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>BPV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355865488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355865488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000009E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>RMS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="355859608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2562,6 +3691,17 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -2621,18 +3761,45 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>243569</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>338819</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2720,15 +3887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>308883</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2744,6 +3911,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3041,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +4318,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
@@ -3131,7 +4330,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="6"/>
@@ -3416,7 +4615,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3937,7 +5136,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="3"/>
     </row>
@@ -3952,31 +5151,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>19</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>22</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
       </c>
       <c r="G38" t="s">
         <v>5</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">

--- a/experiments/compression/results.2017/bunnyRes.xlsx
+++ b/experiments/compression/results.2017/bunnyRes.xlsx
@@ -323,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319455488"/>
-        <c:axId val="319459408"/>
+        <c:axId val="331565088"/>
+        <c:axId val="331559600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319455488"/>
+        <c:axId val="331565088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,12 +365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319459408"/>
+        <c:crossAx val="331559600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319459408"/>
+        <c:axId val="331559600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319455488"/>
+        <c:crossAx val="331565088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -691,11 +691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319456664"/>
-        <c:axId val="319457056"/>
+        <c:axId val="331561168"/>
+        <c:axId val="331565480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319456664"/>
+        <c:axId val="331561168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -734,12 +733,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319457056"/>
+        <c:crossAx val="331565480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319457056"/>
+        <c:axId val="331565480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -762,7 +761,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -779,7 +777,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319456664"/>
+        <c:crossAx val="331561168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1158,11 +1156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414941128"/>
-        <c:axId val="414941912"/>
+        <c:axId val="331565872"/>
+        <c:axId val="331561952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414941128"/>
+        <c:axId val="331565872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1176,12 +1174,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000"/>
+                  <a:defRPr sz="4000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="4000"/>
-                  <a:t>BPV</a:t>
+                  <a:rPr lang="en-AU" sz="4000" b="0"/>
+                  <a:t>Bit-rate</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000" b="0" baseline="0"/>
+                  <a:t> (BPV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU" sz="4000" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1202,12 +1205,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414941912"/>
+        <c:crossAx val="331561952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414941912"/>
+        <c:axId val="331561952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -1221,10 +1224,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="4000"/>
+                  <a:defRPr sz="4000" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:rPr lang="en-AU" sz="4000" b="0"/>
                   <a:t>RMS</a:t>
                 </a:r>
               </a:p>
@@ -1247,7 +1250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414941128"/>
+        <c:crossAx val="331565872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1912,11 +1915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355869800"/>
-        <c:axId val="355867840"/>
+        <c:axId val="331562736"/>
+        <c:axId val="333033616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355869800"/>
+        <c:axId val="331562736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1939,19 +1942,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355867840"/>
+        <c:crossAx val="333033616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355867840"/>
+        <c:axId val="333033616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -1974,14 +1976,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355869800"/>
+        <c:crossAx val="331562736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2429,11 +2430,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321694256"/>
-        <c:axId val="321694648"/>
+        <c:axId val="333032048"/>
+        <c:axId val="333034008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321694256"/>
+        <c:axId val="333032048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2457,19 +2458,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321694648"/>
+        <c:crossAx val="333034008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321694648"/>
+        <c:axId val="333034008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -2493,14 +2493,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321694256"/>
+        <c:crossAx val="333032048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,11 +2913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321692296"/>
-        <c:axId val="321693864"/>
+        <c:axId val="333032832"/>
+        <c:axId val="333031656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321692296"/>
+        <c:axId val="333032832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -2941,19 +2940,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321693864"/>
+        <c:crossAx val="333031656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321693864"/>
+        <c:axId val="333031656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5000000000000005E-3"/>
@@ -2976,14 +2974,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321692296"/>
+        <c:crossAx val="333032832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3209,11 +3206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321695040"/>
-        <c:axId val="321698568"/>
+        <c:axId val="333030480"/>
+        <c:axId val="333035576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321695040"/>
+        <c:axId val="333030480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,19 +3232,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321698568"/>
+        <c:crossAx val="333035576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321698568"/>
+        <c:axId val="333035576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -3270,14 +3266,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="321695040"/>
+        <c:crossAx val="333030480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,11 +3565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355859608"/>
-        <c:axId val="355865488"/>
+        <c:axId val="333028520"/>
+        <c:axId val="333030088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355859608"/>
+        <c:axId val="333028520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3597,19 +3592,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355865488"/>
+        <c:crossAx val="333030088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355865488"/>
+        <c:axId val="333030088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0000000000000009E-3"/>
@@ -3632,14 +3626,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="355859608"/>
+        <c:crossAx val="333028520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3701,7 +3694,8 @@
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
